--- a/mosip_master/xlsx/sync_job_def.xlsx
+++ b/mosip_master/xlsx/sync_job_def.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1044292\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,170 +24,175 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">lang_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent_syncjob_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sync_freq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lock_duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDS_J00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Data Sync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">masterSyncJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 0 11 * * ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDS_J00003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-registration Data Sync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preRegistrationDataSyncJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS_J00008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy Sync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyPolicySyncJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCS_J00005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Client Config Sync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synchConfigDataJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPS_J00006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Packet Status Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packetSyncStatusJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URS_J00007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Detail/Role Setup Sync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userDetailServiceJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEL_J00013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre Registration Packet Deletion Job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preRegistrationPacketDeletionJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDJ_J00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Packet Deletion Job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registrationDeletionJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADJ_J00012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audit Log Deletion Job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deleteAuditLogsJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSJ_J00014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Packet Sync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registrationPacketSyncJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVS_J00015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Client Virus Scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registrationClientVirusScanJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PKS_J00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public key Sync service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publicKeySyncJob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUJ_J00017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Packet Upload Job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registrationPacketUploadJob</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+  <si>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>api_name</t>
+  </si>
+  <si>
+    <t>parent_syncjob_id</t>
+  </si>
+  <si>
+    <t>sync_freq</t>
+  </si>
+  <si>
+    <t>lock_duration</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>MDS_J00001</t>
+  </si>
+  <si>
+    <t>Master Data Sync</t>
+  </si>
+  <si>
+    <t>masterSyncJob</t>
+  </si>
+  <si>
+    <t>0 0 11 * * ?</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>PDS_J00003</t>
+  </si>
+  <si>
+    <t>Pre-registration Data Sync</t>
+  </si>
+  <si>
+    <t>preRegistrationDataSyncJob</t>
+  </si>
+  <si>
+    <t>POS_J00008</t>
+  </si>
+  <si>
+    <t>Policy Sync</t>
+  </si>
+  <si>
+    <t>keyPolicySyncJob</t>
+  </si>
+  <si>
+    <t>RCS_J00005</t>
+  </si>
+  <si>
+    <t>Registration Client Config Sync</t>
+  </si>
+  <si>
+    <t>synchConfigDataJob</t>
+  </si>
+  <si>
+    <t>RPS_J00006</t>
+  </si>
+  <si>
+    <t>Registration Packet Status Reader</t>
+  </si>
+  <si>
+    <t>packetSyncStatusJob</t>
+  </si>
+  <si>
+    <t>URS_J00007</t>
+  </si>
+  <si>
+    <t>User Detail/Role Setup Sync</t>
+  </si>
+  <si>
+    <t>userDetailServiceJob</t>
+  </si>
+  <si>
+    <t>DEL_J00013</t>
+  </si>
+  <si>
+    <t>Pre Registration Packet Deletion Job</t>
+  </si>
+  <si>
+    <t>preRegistrationPacketDeletionJob</t>
+  </si>
+  <si>
+    <t>RDJ_J00010</t>
+  </si>
+  <si>
+    <t>Registration Packet Deletion Job</t>
+  </si>
+  <si>
+    <t>registrationDeletionJob</t>
+  </si>
+  <si>
+    <t>ADJ_J00012</t>
+  </si>
+  <si>
+    <t>Audit Log Deletion Job</t>
+  </si>
+  <si>
+    <t>deleteAuditLogsJob</t>
+  </si>
+  <si>
+    <t>RSJ_J00014</t>
+  </si>
+  <si>
+    <t>Registration Packet Sync</t>
+  </si>
+  <si>
+    <t>registrationPacketSyncJob</t>
+  </si>
+  <si>
+    <t>PVS_J00015</t>
+  </si>
+  <si>
+    <t>Registration Client Virus Scan</t>
+  </si>
+  <si>
+    <t>registrationClientVirusScanJob</t>
+  </si>
+  <si>
+    <t>PKS_J00016</t>
+  </si>
+  <si>
+    <t>Public key Sync service</t>
+  </si>
+  <si>
+    <t>publicKeySyncJob</t>
+  </si>
+  <si>
+    <t>PUJ_J00017</t>
+  </si>
+  <si>
+    <t>Registration Packet Upload Job</t>
+  </si>
+  <si>
+    <t>registrationPacketUploadJob</t>
+  </si>
+  <si>
+    <t>Sync Certificate Job</t>
+  </si>
+  <si>
+    <t>syncCertificateJob</t>
+  </si>
+  <si>
+    <t>SCJ_J00018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -192,25 +201,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -223,109 +216,374 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.43"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -351,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -374,7 +632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -397,7 +655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -420,7 +678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -443,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -466,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -492,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -515,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -538,7 +796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -561,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -584,7 +842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -607,7 +865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -630,8 +888,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -656,13 +914,34 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/sync_job_def.xlsx
+++ b/mosip_master/xlsx/sync_job_def.xlsx
@@ -1,23 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1044292\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjoU4dt3bCugS6aDkGkvdwl7geC8A=="/>
     </ext>
   </extLst>
 </workbook>
@@ -110,7 +102,7 @@
     <t>URS_J00007</t>
   </si>
   <si>
-    <t>User Detail/Role Setup Sync</t>
+    <t>User Detail Setup Sync</t>
   </si>
   <si>
     <t>userDetailServiceJob</t>
@@ -179,32 +171,41 @@
     <t>registrationPacketUploadJob</t>
   </si>
   <si>
+    <t>SCJ_J00018</t>
+  </si>
+  <si>
     <t>Sync Certificate Job</t>
   </si>
   <si>
     <t>syncCertificateJob</t>
-  </si>
-  <si>
-    <t>SCJ_J00018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,112 +213,78 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -341,79 +308,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,394 +461,3345 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1"/>
+    <col customWidth="1" min="1" max="1" width="8.43"/>
+    <col customWidth="1" min="2" max="2" width="18.14"/>
+    <col customWidth="1" min="3" max="3" width="31.86"/>
+    <col customWidth="1" min="4" max="4" width="31.57"/>
+    <col customWidth="1" min="5" max="5" width="16.0"/>
+    <col customWidth="1" min="6" max="6" width="11.0"/>
+    <col customWidth="1" min="7" max="7" width="15.43"/>
+    <col customWidth="1" min="8" max="26" width="8.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="16">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="H195" s="5"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="H197" s="5"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="H217" s="5"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="H220" s="5"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="H225" s="5"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="H247" s="5"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="H248" s="5"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="H249" s="5"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="H250" s="5"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="H252" s="5"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="H253" s="5"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="H254" s="5"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="H255" s="5"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="H256" s="5"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="H257" s="5"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="H258" s="5"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="H259" s="5"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="H260" s="5"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="H261" s="5"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="H262" s="5"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="H263" s="5"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="H264" s="5"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="H265" s="5"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="H266" s="5"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="H267" s="5"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="H268" s="5"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="H269" s="5"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="H270" s="5"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="H271" s="5"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="H272" s="5"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="H273" s="5"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="H274" s="5"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="H275" s="5"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="H276" s="5"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="H277" s="5"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="H278" s="5"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="H279" s="5"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="H280" s="5"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="H281" s="5"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="H282" s="5"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="H283" s="5"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="H284" s="5"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="H285" s="5"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="H286" s="5"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="H287" s="5"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="H288" s="5"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="H289" s="5"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="H290" s="5"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="H291" s="5"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="H292" s="5"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="H293" s="5"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="H294" s="5"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="H295" s="5"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="H296" s="5"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="H297" s="5"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="H298" s="5"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="H299" s="5"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="H300" s="5"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="H301" s="5"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="H302" s="5"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="H303" s="5"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="H304" s="5"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="H305" s="5"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="H306" s="5"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="H307" s="5"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="H308" s="5"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="H309" s="5"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="H310" s="5"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="H311" s="5"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="H312" s="5"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="H313" s="5"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="H314" s="5"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="H315" s="5"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="H316" s="5"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="H317" s="5"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="H318" s="5"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="H319" s="5"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="H320" s="5"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="H321" s="5"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="H322" s="5"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="H323" s="5"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="H324" s="5"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="H325" s="5"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="H326" s="5"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="H327" s="5"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="H328" s="5"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="H329" s="5"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="H330" s="5"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="H331" s="5"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="H332" s="5"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="H333" s="5"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="H334" s="5"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="H335" s="5"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="H336" s="5"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="H337" s="5"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="H338" s="5"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="H339" s="5"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="H340" s="5"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="H341" s="5"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="H342" s="5"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="H343" s="5"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="H344" s="5"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="H345" s="5"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="H346" s="5"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="H347" s="5"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="H348" s="5"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="H349" s="5"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="H350" s="5"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="H351" s="5"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="H352" s="5"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="H353" s="5"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="H354" s="5"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="H355" s="5"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="H356" s="5"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="H357" s="5"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="H358" s="5"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="H359" s="5"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="H360" s="5"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="H361" s="5"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="H362" s="5"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="H363" s="5"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="H364" s="5"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="H365" s="5"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="H366" s="5"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="H367" s="5"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="H368" s="5"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="H369" s="5"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="H370" s="5"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="H371" s="5"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="H372" s="5"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="H373" s="5"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="H374" s="5"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="H375" s="5"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="H376" s="5"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="H377" s="5"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="H378" s="5"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="H379" s="5"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="H380" s="5"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="H381" s="5"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="H382" s="5"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="H383" s="5"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="H384" s="5"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="H385" s="5"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="H386" s="5"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="H387" s="5"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="H388" s="5"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="H389" s="5"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="H390" s="5"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="H391" s="5"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="H392" s="5"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="H393" s="5"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="H394" s="5"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="H395" s="5"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="H396" s="5"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="H397" s="5"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="H398" s="5"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="H399" s="5"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="H400" s="5"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="H401" s="5"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="H402" s="5"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="H403" s="5"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="H404" s="5"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="H405" s="5"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="H406" s="5"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="H407" s="5"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="H408" s="5"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="H409" s="5"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="H410" s="5"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="H411" s="5"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="H412" s="5"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="H413" s="5"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="H414" s="5"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="H415" s="5"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="H416" s="5"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="H417" s="5"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="H418" s="5"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="H419" s="5"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="H420" s="5"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="H421" s="5"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="H422" s="5"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="H423" s="5"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="H424" s="5"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="H425" s="5"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="H426" s="5"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="H427" s="5"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="H428" s="5"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="H429" s="5"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="H430" s="5"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="H431" s="5"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="H432" s="5"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="H433" s="5"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="H434" s="5"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="H435" s="5"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="H436" s="5"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="H437" s="5"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="H438" s="5"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="H439" s="5"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="H440" s="5"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="H441" s="5"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="H442" s="5"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="H443" s="5"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="H444" s="5"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="H445" s="5"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="H446" s="5"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="H447" s="5"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="H448" s="5"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="H449" s="5"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="H450" s="5"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="H451" s="5"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="H452" s="5"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="H453" s="5"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="H454" s="5"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="H455" s="5"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="H456" s="5"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="H457" s="5"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="H458" s="5"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="H459" s="5"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="H460" s="5"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="H461" s="5"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="H462" s="5"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="H463" s="5"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="H464" s="5"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="H465" s="5"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="H466" s="5"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="H467" s="5"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="H468" s="5"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="H469" s="5"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="H470" s="5"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="H471" s="5"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="H472" s="5"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="H473" s="5"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="H474" s="5"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="H475" s="5"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="H476" s="5"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="H477" s="5"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="H478" s="5"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="H479" s="5"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="H480" s="5"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="H481" s="5"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="H482" s="5"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="H483" s="5"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="H484" s="5"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="H485" s="5"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="H486" s="5"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="H487" s="5"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="H488" s="5"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="H489" s="5"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="H490" s="5"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="H491" s="5"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="H492" s="5"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="H493" s="5"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="H494" s="5"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="H495" s="5"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="H496" s="5"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="H497" s="5"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="H498" s="5"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="H499" s="5"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="H500" s="5"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="H501" s="5"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="H502" s="5"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="H503" s="5"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="H504" s="5"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="H505" s="5"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="H506" s="5"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="H507" s="5"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="H508" s="5"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="H509" s="5"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="H510" s="5"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="H511" s="5"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="H512" s="5"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="H513" s="5"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="H514" s="5"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="H515" s="5"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="H516" s="5"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="H517" s="5"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="H518" s="5"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="H519" s="5"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="H520" s="5"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="H521" s="5"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="H522" s="5"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="H523" s="5"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="H524" s="5"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="H525" s="5"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="H526" s="5"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="H527" s="5"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="H528" s="5"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="H529" s="5"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="H530" s="5"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="H531" s="5"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="H532" s="5"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="H533" s="5"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="H534" s="5"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="H535" s="5"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="H536" s="5"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="H537" s="5"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="H538" s="5"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="H539" s="5"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="H540" s="5"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="H541" s="5"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="H542" s="5"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="H543" s="5"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="H544" s="5"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="H545" s="5"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="H546" s="5"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="H547" s="5"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="H548" s="5"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="H549" s="5"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="H550" s="5"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="H551" s="5"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="H552" s="5"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="H553" s="5"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="H554" s="5"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="H555" s="5"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="H556" s="5"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="H557" s="5"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="H558" s="5"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="H559" s="5"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="H560" s="5"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="H561" s="5"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="H562" s="5"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="H563" s="5"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="H564" s="5"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="H565" s="5"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="H566" s="5"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="H567" s="5"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="H568" s="5"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="H569" s="5"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="H570" s="5"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="H571" s="5"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="H572" s="5"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="H573" s="5"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="H574" s="5"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="H575" s="5"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="H576" s="5"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="H577" s="5"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="H578" s="5"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="H579" s="5"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="H580" s="5"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="H581" s="5"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="H582" s="5"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="H583" s="5"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="H584" s="5"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="H585" s="5"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="H586" s="5"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="H587" s="5"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="H588" s="5"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="H589" s="5"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="H590" s="5"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="H591" s="5"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="H592" s="5"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="H593" s="5"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="H594" s="5"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="H595" s="5"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="H596" s="5"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="H597" s="5"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="H598" s="5"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="H599" s="5"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="H600" s="5"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="H601" s="5"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="H602" s="5"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="H603" s="5"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="H604" s="5"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="H605" s="5"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="H606" s="5"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="H607" s="5"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="H608" s="5"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="H609" s="5"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="H610" s="5"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="H611" s="5"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="H612" s="5"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="H613" s="5"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="H614" s="5"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="H615" s="5"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="H616" s="5"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="H617" s="5"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="H618" s="5"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="H619" s="5"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="H620" s="5"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="H621" s="5"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="H622" s="5"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="H623" s="5"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="H624" s="5"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="H625" s="5"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="H626" s="5"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="H627" s="5"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="H628" s="5"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="H629" s="5"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="H630" s="5"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="H631" s="5"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="H632" s="5"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="H633" s="5"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="H634" s="5"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="H635" s="5"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="H636" s="5"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="H637" s="5"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="H638" s="5"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="H639" s="5"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="H640" s="5"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="H641" s="5"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="H642" s="5"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="H643" s="5"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="H644" s="5"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="H645" s="5"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="H646" s="5"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="H647" s="5"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="H648" s="5"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="H649" s="5"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="H650" s="5"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="H651" s="5"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="H652" s="5"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="H653" s="5"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="H654" s="5"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="H655" s="5"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="H656" s="5"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="H657" s="5"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="H658" s="5"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="H659" s="5"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="H660" s="5"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="H661" s="5"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="H662" s="5"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="H663" s="5"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="H664" s="5"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="H665" s="5"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="H666" s="5"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="H667" s="5"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="H668" s="5"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="H669" s="5"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="H670" s="5"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="H671" s="5"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="H672" s="5"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="H673" s="5"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="H674" s="5"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="H675" s="5"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="H676" s="5"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="H677" s="5"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="H678" s="5"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="H679" s="5"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="H680" s="5"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="H681" s="5"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="H682" s="5"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="H683" s="5"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="H684" s="5"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="H685" s="5"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="H686" s="5"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="H687" s="5"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="H688" s="5"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="H689" s="5"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="H690" s="5"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="H691" s="5"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="H692" s="5"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="H693" s="5"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="H694" s="5"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="H695" s="5"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="H696" s="5"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="H697" s="5"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="H698" s="5"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="H699" s="5"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="H700" s="5"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="H701" s="5"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="H702" s="5"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="H703" s="5"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="H704" s="5"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="H705" s="5"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="H706" s="5"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="H707" s="5"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="H708" s="5"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="H709" s="5"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="H710" s="5"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="H711" s="5"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="H712" s="5"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="H713" s="5"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="H714" s="5"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="H715" s="5"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="H716" s="5"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="H717" s="5"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="H718" s="5"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="H719" s="5"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="H720" s="5"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="H721" s="5"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="H722" s="5"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="H723" s="5"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="H724" s="5"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="H725" s="5"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="H726" s="5"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="H727" s="5"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="H728" s="5"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="H729" s="5"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="H730" s="5"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="H731" s="5"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="H732" s="5"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="H733" s="5"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="H734" s="5"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="H735" s="5"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="H736" s="5"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="H737" s="5"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="H738" s="5"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="H739" s="5"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="H740" s="5"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="H741" s="5"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="H742" s="5"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="H743" s="5"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="H744" s="5"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="H745" s="5"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="H746" s="5"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="H747" s="5"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="H748" s="5"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="H749" s="5"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="H750" s="5"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="H751" s="5"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="H752" s="5"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="H753" s="5"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="H754" s="5"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="H755" s="5"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="H756" s="5"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="H757" s="5"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="H758" s="5"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="H759" s="5"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="H760" s="5"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="H761" s="5"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="H762" s="5"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="H763" s="5"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="H764" s="5"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="H765" s="5"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="H766" s="5"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="H767" s="5"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="H768" s="5"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="H769" s="5"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="H770" s="5"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="H771" s="5"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="H772" s="5"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="H773" s="5"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="H774" s="5"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="H775" s="5"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="H776" s="5"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="H777" s="5"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="H778" s="5"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="H779" s="5"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="H780" s="5"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="H781" s="5"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="H782" s="5"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="H783" s="5"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="H784" s="5"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="H785" s="5"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="H786" s="5"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="H787" s="5"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="H788" s="5"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="H789" s="5"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="H790" s="5"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="H791" s="5"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="H792" s="5"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="H793" s="5"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="H794" s="5"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="H795" s="5"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="H796" s="5"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="H797" s="5"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="H798" s="5"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="H799" s="5"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="H800" s="5"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="H801" s="5"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="H802" s="5"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="H803" s="5"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="H804" s="5"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="H805" s="5"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="H806" s="5"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="H807" s="5"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="H808" s="5"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="H809" s="5"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="H810" s="5"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="H811" s="5"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="H812" s="5"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="H813" s="5"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="H814" s="5"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="H815" s="5"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="H816" s="5"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="H817" s="5"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="H818" s="5"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="H819" s="5"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="H820" s="5"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="H821" s="5"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="H822" s="5"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="H823" s="5"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="H824" s="5"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="H825" s="5"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="H826" s="5"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="H827" s="5"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="H828" s="5"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="H829" s="5"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="H830" s="5"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="H831" s="5"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="H832" s="5"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="H833" s="5"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="H834" s="5"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="H835" s="5"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="H836" s="5"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="H837" s="5"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="H838" s="5"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="H839" s="5"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="H840" s="5"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="H841" s="5"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="H842" s="5"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="H843" s="5"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="H844" s="5"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="H845" s="5"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="H846" s="5"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="H847" s="5"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="H848" s="5"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="H849" s="5"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="H850" s="5"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="H851" s="5"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="H852" s="5"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="H853" s="5"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="H854" s="5"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="H855" s="5"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="H856" s="5"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="H857" s="5"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="H858" s="5"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="H859" s="5"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="H860" s="5"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="H861" s="5"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="H862" s="5"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="H863" s="5"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="H864" s="5"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="H865" s="5"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="H866" s="5"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="H867" s="5"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="H868" s="5"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="H869" s="5"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="H870" s="5"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="H871" s="5"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="H872" s="5"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="H873" s="5"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="H874" s="5"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="H875" s="5"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="H876" s="5"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="H877" s="5"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="H878" s="5"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="H879" s="5"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="H880" s="5"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="H881" s="5"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="H882" s="5"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="H883" s="5"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="H884" s="5"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="H885" s="5"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="H886" s="5"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="H887" s="5"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="H888" s="5"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="H889" s="5"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="H890" s="5"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="H891" s="5"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="H892" s="5"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="H893" s="5"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="H894" s="5"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="H895" s="5"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="H896" s="5"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="H897" s="5"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="H898" s="5"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="H899" s="5"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="H900" s="5"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="H901" s="5"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="H902" s="5"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="H903" s="5"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="H904" s="5"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="H905" s="5"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="H906" s="5"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="H907" s="5"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="H908" s="5"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="H909" s="5"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="H910" s="5"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="H911" s="5"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="H912" s="5"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="H913" s="5"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="H914" s="5"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="H915" s="5"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="H916" s="5"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="H917" s="5"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="H918" s="5"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="H919" s="5"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="H920" s="5"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="H921" s="5"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="H922" s="5"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="H923" s="5"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="H924" s="5"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="H925" s="5"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="H926" s="5"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="H927" s="5"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="H928" s="5"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="H929" s="5"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="H930" s="5"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="H931" s="5"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="H932" s="5"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="H933" s="5"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="H934" s="5"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="H935" s="5"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="H936" s="5"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="H937" s="5"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="H938" s="5"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="H939" s="5"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="H940" s="5"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="H941" s="5"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="H942" s="5"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="H943" s="5"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="H944" s="5"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="H945" s="5"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="H946" s="5"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="H947" s="5"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="H948" s="5"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="H949" s="5"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="H950" s="5"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="H951" s="5"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="H952" s="5"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="H953" s="5"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="H954" s="5"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="H955" s="5"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="H956" s="5"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="H957" s="5"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="H958" s="5"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="H959" s="5"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="H960" s="5"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="H961" s="5"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="H962" s="5"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="H963" s="5"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="H964" s="5"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="H965" s="5"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="H966" s="5"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="H967" s="5"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="H968" s="5"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="H969" s="5"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="H970" s="5"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="H971" s="5"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="H972" s="5"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="H973" s="5"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="H974" s="5"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="H975" s="5"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="H976" s="5"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="H977" s="5"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="H978" s="5"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="H979" s="5"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="H980" s="5"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="H981" s="5"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="H982" s="5"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="H983" s="5"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="H984" s="5"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="H985" s="5"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="H986" s="5"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="H987" s="5"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="H988" s="5"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="H989" s="5"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="H990" s="5"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="H991" s="5"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="H992" s="5"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="H993" s="5"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="H994" s="5"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="H995" s="5"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="H996" s="5"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="H997" s="5"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="H998" s="5"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="H999" s="5"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="H1000" s="5"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/sync_job_def.xlsx
+++ b/mosip_master/xlsx/sync_job_def.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1044292\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\Chithara27-fork\MEC-PROD-Mosip-data excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA091CA0-6FC4-431E-961F-37AE474FA372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>lang_code</t>
   </si>
@@ -65,12 +66,6 @@
     <t>0 0 11 * * ?</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>PDS_J00003</t>
   </si>
   <si>
@@ -186,12 +181,39 @@
   </si>
   <si>
     <t>SCJ_J00018</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>job_type</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>rediet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,10 +223,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,6 +276,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -287,7 +310,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -565,383 +588,566 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="7">
+        <v>44776.354141041666</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/sync_job_def.xlsx
+++ b/mosip_master/xlsx/sync_job_def.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1044292\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39FF9E8-0A19-40FD-BB59-D502F85C3573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>MDS_J00001</t>
   </si>
   <si>
@@ -186,12 +184,15 @@
   </si>
   <si>
     <t>SCJ_J00018</t>
+  </si>
+  <si>
+    <t>fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,11 +252,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -287,7 +287,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -565,25 +565,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,335 +609,335 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>14</v>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
